--- a/data/SummaryofDQIssuesDiscovered.xlsx
+++ b/data/SummaryofDQIssuesDiscovered.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c0e969fead7e976/Documentos/Android Meus Documentos/PhD/FINAL THESIS/THESIS CODES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://curtin-my.sharepoint.com/personal/20882194_student_curtin_edu_au/Documents/Documents/Android Meus Documentos/PhD/FINAL THESIS/THESIS CODES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{E751085F-A970-4394-BF78-099AF64A8779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A393BE2F-F5D6-417A-8B30-D3BE3351BAFA}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_CD26B67378979D0DBB4B6B674174F68A3D61F527" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8214E989-75CB-4E4B-B077-E7965A374EB2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-3285" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary (3)" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary (4)" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="185">
   <si>
     <t>Total Rows</t>
   </si>
@@ -395,6 +397,9 @@
     <t>2025-04-04 19:11:48</t>
   </si>
   <si>
+    <t>04-04-2025 19:34</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -416,6 +421,9 @@
     <t>job</t>
   </si>
   <si>
+    <t>2025-04-04 19:34:51</t>
+  </si>
+  <si>
     <t>0.19%</t>
   </si>
   <si>
@@ -443,12 +451,6 @@
     <t>loan</t>
   </si>
   <si>
-    <t>04-04-2025 19:34</t>
-  </si>
-  <si>
-    <t>2025-04-04 19:34:51</t>
-  </si>
-  <si>
     <t>86.34%</t>
   </si>
   <si>
@@ -456,6 +458,123 @@
   </si>
   <si>
     <t>poutcome</t>
+  </si>
+  <si>
+    <t>11-09-2025 17:01</t>
+  </si>
+  <si>
+    <t>2025-09-11 17:01:18</t>
+  </si>
+  <si>
+    <t>11-09-2025 17:07</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Wrong Data Type</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>check_numerical_ge_zero</t>
+  </si>
+  <si>
+    <t>numerical&gt;=0</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
+    <t>Non-numeric</t>
+  </si>
+  <si>
+    <t>"C536379", "C536383", "C536391..."</t>
+  </si>
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>2025-09-11 17:07:09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Structural Conflicts</t>
+  </si>
+  <si>
+    <t>Consistency, Uniqueness</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Too many categories</t>
+  </si>
+  <si>
+    <t>4070 categories</t>
+  </si>
+  <si>
+    <t>StockCode</t>
+  </si>
+  <si>
+    <t>0.28%</t>
+  </si>
+  <si>
+    <t>"?", "NULL"</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>4224 categories</t>
+  </si>
+  <si>
+    <t>check_id_attributes</t>
+  </si>
+  <si>
+    <t>IDcolumn</t>
+  </si>
+  <si>
+    <t>24.93%</t>
+  </si>
+  <si>
+    <t>"NULL"</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Duplicates</t>
+  </si>
+  <si>
+    <t>Uniqueness</t>
+  </si>
+  <si>
+    <t>75.06%</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>"0", "1", "2..."</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Uniqueness Violation</t>
+  </si>
+  <si>
+    <t>74.27%</t>
+  </si>
+  <si>
+    <t>Uniqueness violation(s)</t>
   </si>
   <si>
     <t>Total DQIs - Errors</t>
@@ -465,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,13 +628,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFACD"/>
+        <bgColor rgb="FFFFFACD"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -581,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -605,6 +735,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3263,7 +3395,7 @@
         <v>94.42</v>
       </c>
       <c r="M83" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -3309,13 +3441,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
@@ -3330,33 +3462,33 @@
         <v>330</v>
       </c>
       <c r="H86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K86">
         <v>222</v>
       </c>
       <c r="L86" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M86" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D87" t="s">
         <v>33</v>
@@ -3371,33 +3503,33 @@
         <v>80</v>
       </c>
       <c r="H87" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K87">
         <v>222</v>
       </c>
       <c r="L87" t="s">
+        <v>134</v>
+      </c>
+      <c r="M87" t="s">
         <v>132</v>
-      </c>
-      <c r="M87" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
@@ -3412,33 +3544,33 @@
         <v>1731</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J88" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K88">
         <v>222</v>
       </c>
       <c r="L88" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M88" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
@@ -3453,33 +3585,33 @@
         <v>8597</v>
       </c>
       <c r="H89" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J89" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K89">
         <v>222</v>
       </c>
       <c r="L89" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M89" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D90" t="s">
         <v>33</v>
@@ -3494,33 +3626,33 @@
         <v>990</v>
       </c>
       <c r="H90" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K90">
         <v>222</v>
       </c>
       <c r="L90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M90" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D91" t="s">
         <v>33</v>
@@ -3535,33 +3667,33 @@
         <v>990</v>
       </c>
       <c r="H91" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K91">
         <v>222</v>
       </c>
       <c r="L91" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M91" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D92" t="s">
         <v>33</v>
@@ -3579,7 +3711,7 @@
         <v>142</v>
       </c>
       <c r="I92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J92" t="s">
         <v>143</v>
@@ -3591,7 +3723,7 @@
         <v>144</v>
       </c>
       <c r="M92" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3732,2604 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C207EBF0-9A8B-4364-BAC9-124A59973A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" customWidth="1"/>
+    <col min="10" max="10" width="19.6328125" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>1836</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>1843</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>583</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>170</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9">
+        <v>142</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>103</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>103</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>103</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>103</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24">
+        <v>103</v>
+      </c>
+      <c r="L24" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>690</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
+        <v>115</v>
+      </c>
+      <c r="K33">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34">
+        <v>1237</v>
+      </c>
+      <c r="H34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34">
+        <v>186</v>
+      </c>
+      <c r="L34" t="s">
+        <v>122</v>
+      </c>
+      <c r="M34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23">
+        <v>41188</v>
+      </c>
+      <c r="H37" s="23">
+        <v>21</v>
+      </c>
+      <c r="I37" s="23">
+        <v>864948</v>
+      </c>
+      <c r="J37" s="23">
+        <v>48281</v>
+      </c>
+      <c r="K37" s="23">
+        <v>222</v>
+      </c>
+      <c r="L37" s="24">
+        <v>94.42</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40">
+        <v>330</v>
+      </c>
+      <c r="H40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40">
+        <v>222</v>
+      </c>
+      <c r="L40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41">
+        <v>222</v>
+      </c>
+      <c r="L41" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>1731</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42">
+        <v>222</v>
+      </c>
+      <c r="L42" t="s">
+        <v>136</v>
+      </c>
+      <c r="M42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>8597</v>
+      </c>
+      <c r="H43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" t="s">
+        <v>129</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43">
+        <v>222</v>
+      </c>
+      <c r="L43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>990</v>
+      </c>
+      <c r="H44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44">
+        <v>222</v>
+      </c>
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>990</v>
+      </c>
+      <c r="H45" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45">
+        <v>222</v>
+      </c>
+      <c r="L45" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>35563</v>
+      </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46">
+        <v>222</v>
+      </c>
+      <c r="L46" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23">
+        <v>541909</v>
+      </c>
+      <c r="H49" s="23">
+        <v>8</v>
+      </c>
+      <c r="I49" s="23">
+        <v>4335272</v>
+      </c>
+      <c r="J49" s="23">
+        <v>955079</v>
+      </c>
+      <c r="K49" s="23">
+        <v>352</v>
+      </c>
+      <c r="L49" s="24">
+        <v>87.25</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52">
+        <v>9291</v>
+      </c>
+      <c r="H52" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" t="s">
+        <v>154</v>
+      </c>
+      <c r="J52" t="s">
+        <v>155</v>
+      </c>
+      <c r="K52">
+        <v>352</v>
+      </c>
+      <c r="L52" t="s">
+        <v>156</v>
+      </c>
+      <c r="M52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>161</v>
+      </c>
+      <c r="I53" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" t="s">
+        <v>163</v>
+      </c>
+      <c r="K53">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s">
+        <v>164</v>
+      </c>
+      <c r="M53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54">
+        <v>1501</v>
+      </c>
+      <c r="H54" t="s">
+        <v>165</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54">
+        <v>352</v>
+      </c>
+      <c r="L54" t="s">
+        <v>167</v>
+      </c>
+      <c r="M54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>161</v>
+      </c>
+      <c r="I55" t="s">
+        <v>162</v>
+      </c>
+      <c r="J55" t="s">
+        <v>168</v>
+      </c>
+      <c r="K55">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s">
+        <v>167</v>
+      </c>
+      <c r="M55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56">
+        <v>135080</v>
+      </c>
+      <c r="H56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s">
+        <v>173</v>
+      </c>
+      <c r="M56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57">
+        <v>406750</v>
+      </c>
+      <c r="H57" t="s">
+        <v>177</v>
+      </c>
+      <c r="I57" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" t="s">
+        <v>179</v>
+      </c>
+      <c r="K57">
+        <v>352</v>
+      </c>
+      <c r="L57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58">
+        <v>402457</v>
+      </c>
+      <c r="H58" t="s">
+        <v>182</v>
+      </c>
+      <c r="I58" t="s">
+        <v>183</v>
+      </c>
+      <c r="J58" t="s">
+        <v>179</v>
+      </c>
+      <c r="K58">
+        <v>352</v>
+      </c>
+      <c r="L58" t="s">
+        <v>173</v>
+      </c>
+      <c r="M58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9">
+        <v>690</v>
+      </c>
+      <c r="H2" s="9">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9">
+        <v>11040</v>
+      </c>
+      <c r="J2" s="9">
+        <v>757</v>
+      </c>
+      <c r="K2" s="9">
+        <v>27</v>
+      </c>
+      <c r="L2" s="10">
+        <v>93.14</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>178</v>
+      </c>
+      <c r="H3" s="5">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2492</v>
+      </c>
+      <c r="J3" s="5">
+        <v>170</v>
+      </c>
+      <c r="K3" s="5">
+        <v>107</v>
+      </c>
+      <c r="L3" s="6">
+        <v>93.18</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
+        <v>1599</v>
+      </c>
+      <c r="H4" s="9">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9">
+        <v>19188</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1237</v>
+      </c>
+      <c r="K4" s="9">
+        <v>186</v>
+      </c>
+      <c r="L4" s="10">
+        <v>93.55</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11">
+        <v>41188</v>
+      </c>
+      <c r="H5" s="11">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11">
+        <v>864948</v>
+      </c>
+      <c r="J5" s="11">
+        <v>48281</v>
+      </c>
+      <c r="K5" s="11">
+        <v>222</v>
+      </c>
+      <c r="L5" s="12">
+        <v>94.42</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>435</v>
+      </c>
+      <c r="H6" s="7">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7395</v>
+      </c>
+      <c r="J6" s="7">
+        <v>392</v>
+      </c>
+      <c r="K6" s="7">
+        <v>103</v>
+      </c>
+      <c r="L6" s="8">
+        <v>94.7</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7">
+        <v>21000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="7">
+        <v>142</v>
+      </c>
+      <c r="L7" s="8">
+        <v>95.24</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>32561</v>
+      </c>
+      <c r="H8" s="3">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3">
+        <v>488415</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4262</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>99.13</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>303</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4242</v>
+      </c>
+      <c r="J9" s="1">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2">
+        <v>99.84</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>150</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>750</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>52</v>
+      </c>
+      <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>214</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2354</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7">
+        <v>100</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7">
+        <v>340000</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>58</v>
+      </c>
+      <c r="L12" s="7">
+        <v>100</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
+        <v>4601</v>
+      </c>
+      <c r="H13" s="7">
+        <v>58</v>
+      </c>
+      <c r="I13" s="7">
+        <v>266858</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>92</v>
+      </c>
+      <c r="L13" s="7">
+        <v>100</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3642,7 +6371,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>5</v>
@@ -3921,9 +6650,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N12">
-    <sortCondition ref="N3:N12"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>